--- a/testdata/test_sjis.xlsx
+++ b/testdata/test_sjis.xlsx
@@ -14,7 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>1</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>みかん</t>
@@ -26,9 +32,6 @@
     <t>12000</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>リンゴ</t>
   </si>
   <si>
@@ -36,9 +39,6 @@
   </si>
   <si>
     <t>5000</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>バナナ</t>
@@ -90,16 +90,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.791945457458496" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.791945457458496" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -112,35 +111,37 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
     </row>
